--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.55%</t>
         </is>
       </c>
     </row>
@@ -614,21 +614,21 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>6.34</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>6.11</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>17383</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>60299.80078125</v>
+        <v>60594.6015625</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>22207.900390625</v>
@@ -3244,7 +3244,7 @@
         <v>8.42</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>6.11</v>
+        <v>6.63</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>5.19</v>
@@ -5690,7 +5690,7 @@
         <v>0.76</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>0.39</v>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty Next 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Next 50, Nifty Midcap 150</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>4.76%</t>
+          <t>4.89%</t>
         </is>
       </c>
     </row>
@@ -614,51 +614,51 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>5.45</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>Nifty 200</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>5.2</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>Nifty 100</t>
+          <t>Nifty 200</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>4.98</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150</t>
+          <t>Nifty 100</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>4.9</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 150</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>4.87</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
@@ -810,7 +810,7 @@
         <v>17265.849609375</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>59592.1484375</v>
+        <v>60310.1484375</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>22146.150390625</v>
@@ -970,34 +970,34 @@
         <v>46003</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>26046.94921875</v>
+        <v>25898.55078125</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>68509.703125</v>
+        <v>67939.5</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>26565.099609375</v>
+        <v>26402.44921875</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>14469.2998046875</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>17276.19921875</v>
+        <v>17089.75</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>60283.30078125</v>
+        <v>59578.05078125</v>
       </c>
       <c r="H7" s="8" t="n">
         <v>22152.099609375</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>23726.19921875</v>
+        <v>23550.849609375</v>
       </c>
       <c r="J7" s="8" t="n">
         <v>16.45000076293945</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>23726.19921875</v>
+        <v>23550.849609375</v>
       </c>
     </row>
     <row r="8">
@@ -3594,7 +3594,7 @@
         <v>7.69</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>4.87</v>
+        <v>6.13</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>4.9</v>
@@ -3754,34 +3754,34 @@
         <v>46003</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>5.77</v>
+        <v>5.17</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.76</v>
+        <v>1.9</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.29</v>
+        <v>4.64</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5.44</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.75</v>
+        <v>6.59</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>6.08</v>
+        <v>4.84</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>4.93</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>4.46</v>
+        <v>3.69</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>4.46</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="8">
@@ -6390,7 +6390,7 @@
         <v>1.02</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>1.16</v>
@@ -6515,34 +6515,34 @@
         <v>46006</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>-0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.16</v>
+        <v>1.01</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.04</v>
+        <v>0.58</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>-0.05</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.08</v>
+        <v>1.01</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.12</v>
+        <v>1.07</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>-0.07000000000000001</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0.24</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -6550,34 +6550,34 @@
         <v>46003</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.72</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>1.18</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0.86</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -9104,12 +9104,12 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty Midcap 50, Nifty Next 50</t>
+          <t>Nifty Midcap 100, Nifty Midcap 150, Nifty Midcap 50</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
     </row>
@@ -9164,12 +9164,12 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Nifty500 Multicap 50:25:25, Nifty Next 50, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
+          <t>Nifty Midcap 100, Nifty Next 50, Nifty Midcap 50</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty Midcap 50</t>
+          <t>Nifty Midcap 150, Nifty 200, Nifty500 Multicap 50:25:25</t>
         </is>
       </c>
     </row>
@@ -9179,12 +9179,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty Midcap 150, Nifty Midcap 50</t>
+          <t>Nifty Midcap 150, Nifty500 Multicap 50:25:25, Nifty 200</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Nifty 50, Nifty 100, Nifty 200</t>
+          <t>Nifty 50, Nifty Next 50, Nifty 100</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -970,34 +970,34 @@
         <v>46003</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>25898.55078125</v>
+        <v>26046.94921875</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>67939.5</v>
+        <v>68509.703125</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>26402.44921875</v>
+        <v>26565.099609375</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>14469.2998046875</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>17089.75</v>
+        <v>17276.19921875</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>59578.05078125</v>
+        <v>60283.30078125</v>
       </c>
       <c r="H7" s="8" t="n">
         <v>22152.099609375</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>23550.849609375</v>
+        <v>23726.19921875</v>
       </c>
       <c r="J7" s="8" t="n">
         <v>16.45000076293945</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>23550.849609375</v>
+        <v>23726.19921875</v>
       </c>
     </row>
     <row r="8">
@@ -3754,34 +3754,34 @@
         <v>46003</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>5.17</v>
+        <v>5.77</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.9</v>
+        <v>2.76</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.64</v>
+        <v>5.29</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5.44</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.59</v>
+        <v>7.75</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4.84</v>
+        <v>6.08</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>4.93</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>3.69</v>
+        <v>4.46</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>3.69</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="8">
@@ -6515,34 +6515,34 @@
         <v>46006</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.5</v>
+        <v>-0.08</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.01</v>
+        <v>0.16</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.58</v>
+        <v>-0.04</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>-0.05</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.01</v>
+        <v>-0.08</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.07</v>
+        <v>-0.12</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>-0.07000000000000001</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0.24</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6550,34 +6550,34 @@
         <v>46003</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.72</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>1.18</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0.86</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -9164,12 +9164,12 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty Next 50, Nifty Midcap 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Next 50, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty 200, Nifty500 Multicap 50:25:25</t>
+          <t>Nifty Midcap 100, Nifty 50, Nifty Midcap 50</t>
         </is>
       </c>
     </row>
@@ -9179,12 +9179,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty500 Multicap 50:25:25, Nifty 200</t>
+          <t>Nifty Midcap 100, Nifty Midcap 150, Nifty Midcap 50</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Nifty 50, Nifty Next 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>5.5%</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>7.02</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +810,7 @@
         <v>17248.19921875</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>60816.1015625</v>
+        <v>60451.3515625</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>22247.349609375</v>
@@ -3699,7 +3699,7 @@
         <v>7.58</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>7.02</v>
+        <v>6.38</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>5.38</v>
@@ -6600,7 +6600,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>-0.47</v>
@@ -9419,12 +9419,12 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty 50, Nifty 100</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 50, Nifty Midcap 150, Nifty 200</t>
+          <t>Nifty Midcap 50, Nifty Midcap 100, Nifty Midcap 150</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>5.23%</t>
+          <t>5.21%</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>6.38</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +810,7 @@
         <v>17183.30078125</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>60451.3515625</v>
+        <v>60314.44921875</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>22190.75</v>
@@ -3734,7 +3734,7 @@
         <v>7.17</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>6.38</v>
+        <v>6.14</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>5.11</v>
@@ -6670,7 +6670,7 @@
         <v>-0.38</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>-0.25</v>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>5.62%</t>
         </is>
       </c>
     </row>
@@ -614,51 +614,51 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>6.11</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>Nifty 200</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>5.91</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>Nifty 100</t>
+          <t>Nifty 200</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>5.78</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150</t>
+          <t>Nifty 100</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>5.52</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 150</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>5.44</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="8">
@@ -810,7 +810,7 @@
         <v>17254.05078125</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>59914.25</v>
+        <v>60484.5</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>22276.900390625</v>
@@ -3839,7 +3839,7 @@
         <v>7.61</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>5.44</v>
+        <v>6.44</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>5.52</v>
@@ -6880,7 +6880,7 @@
         <v>1.14</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>0.97</v>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>4.14%</t>
+          <t>4.05%</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>5.98</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +810,7 @@
         <v>17096.5</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>60222.55078125</v>
+        <v>59748.1484375</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>21985.900390625</v>
@@ -4084,7 +4084,7 @@
         <v>6.63</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>5.98</v>
+        <v>5.14</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>4.14</v>
@@ -7370,7 +7370,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>-0.88</v>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty Midcap 50, Nifty 50</t>
+          <t>Nifty Midcap 50, Nifty 50, Nifty 100</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>4.04%</t>
+          <t>4.08%</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>4.88</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +810,7 @@
         <v>17054.25</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>59597.80078125</v>
+        <v>59770.5</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>21965.44921875</v>
@@ -4189,7 +4189,7 @@
         <v>6.37</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>4.88</v>
+        <v>5.18</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>4.04</v>
@@ -7580,7 +7580,7 @@
         <v>0.12</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>0.21</v>
@@ -10889,7 +10889,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Next 50, Nifty500 Multicap 50:25:25, Nifty Midcap 150</t>
+          <t>Nifty Next 50, Nifty Midcap 100, Nifty500 Multicap 50:25:25</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>4.2%</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +810,7 @@
         <v>17146.19921875</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>59770.5</v>
+        <v>59867.80078125</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>21975.099609375</v>
@@ -4224,7 +4224,7 @@
         <v>6.94</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>4.09</v>
@@ -7650,7 +7650,7 @@
         <v>0.54</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>0.04</v>
@@ -10994,12 +10994,12 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 50, Nifty 200, Nifty 50</t>
+          <t>Nifty Midcap 50, Nifty Midcap 100, Nifty 200</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 100, Nifty Midcap 150</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 150, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.44%</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 50</t>
         </is>
       </c>
     </row>
@@ -591,51 +591,51 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 50</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 50</t>
+          <t>Nifty 50</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>Nifty 50</t>
+          <t>Nifty 100</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>Nifty 100</t>
+          <t>Nifty 200</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Nifty 200</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         <v>16348.150390625</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>58191.30078125</v>
+        <v>57145.6484375</v>
       </c>
       <c r="H2" s="7" t="n">
         <v>21008.55078125</v>
@@ -4386,7 +4386,7 @@
         <v>1.96</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>-0.49</v>
@@ -7987,7 +7987,7 @@
         <v>-1.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>-1.72</v>
@@ -11506,12 +11506,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty 50, Nifty 100</t>
+          <t>Nifty 50, Nifty 100, Nifty 200</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Nifty Next 50, Nifty Midcap 50, Nifty Midcap 150</t>
+          <t>Nifty Next 50, Nifty Midcap 50, Nifty Midcap 100</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>2.25%</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="4">
@@ -797,7 +797,7 @@
         <v>16693.25</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>58541</v>
+        <v>58432</v>
       </c>
       <c r="H2" s="7" t="n">
         <v>21490.900390625</v>
@@ -4526,7 +4526,7 @@
         <v>4.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1.8</v>
@@ -8267,7 +8267,7 @@
         <v>-0.26</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0.03</v>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150, Nifty Midcap 100, Nifty500 Multicap 50:25:25</t>
+          <t>Nifty Midcap 150, Nifty500 Multicap 50:25:25, Nifty Midcap 100</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>3.57%</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="10">
@@ -797,7 +797,7 @@
         <v>16912.349609375</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>59227.6484375</v>
+        <v>59513.94921875</v>
       </c>
       <c r="H2" s="7" t="n">
         <v>21918.19921875</v>
@@ -10826,7 +10826,7 @@
         <v>4.13</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>3.16</v>
@@ -20867,7 +20867,7 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0.48</v>
@@ -30831,7 +30831,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty Midcap 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 50, Nifty500 LargeMidSmall Equal-Cap Weighted</t>
         </is>
       </c>
     </row>

--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.74%</t>
         </is>
       </c>
     </row>
@@ -631,21 +631,21 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100</t>
+          <t>Nifty Midcap 150</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Nifty Midcap 150</t>
+          <t>Nifty Midcap 100</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="8">
@@ -797,7 +797,7 @@
         <v>16765.599609375</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>59798.1484375</v>
+        <v>59115.6015625</v>
       </c>
       <c r="H2" s="7" t="n">
         <v>21847.349609375</v>
@@ -11001,7 +11001,7 @@
         <v>3.22</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.91</v>
+        <v>1.73</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>2.83</v>
@@ -21217,7 +21217,7 @@
         <v>-1.06</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>-1.14</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>-1.09</v>
@@ -31351,7 +31351,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Nifty Midcap 100, Nifty500 Multicap 50:25:25, Nifty Midcap 50</t>
+          <t>Nifty500 Multicap 50:25:25, Nifty Midcap 50, Nifty Midcap 150</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
